--- a/CoParticipacaoWebService/src/test/resources/cargill/input/201901/CARGILL.NAO-LOCALIZADO.201901.003.xlsx
+++ b/CoParticipacaoWebService/src/test/resources/cargill/input/201901/CARGILL.NAO-LOCALIZADO.201901.003.xlsx
@@ -72,7 +72,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,12 +105,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
-      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -185,8 +179,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -268,8 +262,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,8 +304,8 @@
       <c r="B2" s="2" t="n">
         <v>102837</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
+      <c r="C2" s="3" t="n">
+        <v>45128745242</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
@@ -323,7 +317,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>40456</v>
+        <v>43101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,7 +340,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>41402</v>
+        <v>43101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,7 +363,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>41402</v>
+        <v>43101</v>
       </c>
     </row>
   </sheetData>
